--- a/data/dataset-curation-summary.xlsx
+++ b/data/dataset-curation-summary.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="102">
   <si>
     <t xml:space="preserve">LabId</t>
   </si>
@@ -85,15 +85,15 @@
     <t xml:space="preserve">Standard</t>
   </si>
   <si>
+    <t xml:space="preserve">No</t>
+  </si>
+  <si>
     <t xml:space="preserve">Yes</t>
   </si>
   <si>
     <t xml:space="preserve">Yes (with remarks)</t>
   </si>
   <si>
-    <t xml:space="preserve">No</t>
-  </si>
-  <si>
     <t xml:space="preserve">does not apply</t>
   </si>
   <si>
@@ -154,70 +154,160 @@
     <t xml:space="preserve">duplicate of #8, #11 (most complete report)</t>
   </si>
   <si>
+    <t xml:space="preserve">18a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3xTotal Blank and 3x Matrix Blank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NIST samples only reported with one replicate each, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">20a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">empty or 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Separate Matrix Blank and Total Blank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Separate Matrix Blank and Total Blank, four replicates→ adapted result format, LC-MS &amp; TLS-LC-MS, removing replicate 3 from LC-MRM, seems to be consistently too low</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no blanks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NIST samples only reported with one replicate each</t>
+  </si>
+  <si>
+    <t xml:space="preserve">three blank rows</t>
+  </si>
+  <si>
+    <t xml:space="preserve">renamed sheet "Main LC-MRM-Intra Assay QC Res" to "LC-MRM - Intra Assay QC Res"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Note for Blank: Refer to 'blue' highlights in Main raw peak areas' | Note for intra-assay QC: a 2nd run was repeated (with same extract) on a separate day (refer to Run 2xxxx tabs)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blanks only reported with one replicate each</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NIST samples only reported with one replicate each, blanks only reported with one replicate each</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not inj or &lt;LOD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">three total blanks only reported with one replicate each</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intra Assay QC Res Sheet was modified, Total Blank was added after NIST samples. NIST samples only reported with one replicate each</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comment: It seems that the sample numbering of Calibration-B-STD4 and Calibration-B-STD5 was reversed. Please check them.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">29a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N/A or empty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calibration line samples, NIST samples and QC samples only reported with one replicate each</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N/A or ND or injection failed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Replaced injection failed with „N/A“</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please see „NOTES from Participants.docx“</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preferred</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only final concentrations reported in custom format</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only two Blank samples reported with one replicate, reversed calibration line data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N.D.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pooled QC, Total Blank and Matrix Blank, modified format, Result sheet is FIA-MRM - Intra Assay QC Res, Removed HQC2 and HLQC6 (outliers)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QC samples and NIST samples only reported with one replicate each, Total Blank and Matrix Blank, Renamed Sheet „LC-MRM - Intra Assay QC Res“</t>
+  </si>
+  <si>
     <t xml:space="preserve">N/F</t>
   </si>
   <si>
     <t xml:space="preserve">17a</t>
   </si>
   <si>
-    <t xml:space="preserve">NIST samples only reported with one replicate each</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3xTotal Blank and 3x Matrix Blank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NIST samples only reported with one replicate each, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">no blanks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">three blank rows</t>
-  </si>
-  <si>
-    <t xml:space="preserve">renamed sheet "Main LC-MRM-Intra Assay QC Res" to "LC-MRM - Intra Assay QC Res"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Note for Blank: Refer to 'blue' highlights in Main raw peak areas' | Note for intra-assay QC: a 2nd run was repeated (with same extract) on a separate day (refer to Run 2xxxx tabs)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blanks only reported with one replicate each</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NIST samples only reported with one replicate each, blanks only reported with one replicate each</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not inj or &lt;LOD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">three total blanks only reported with one replicate each</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intra Assay QC Res Sheet was modified, Total Blank was added after NIST samples. NIST samples only reported with one replicate each</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comment: It seems that the sample numbering of Calibration-B-STD4 and Calibration-B-STD5 was reversed. Please check them.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">29a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Separate Matrix Blank and Total Blank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30</t>
+    <t xml:space="preserve">17b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Report contains full lipid profile, not just Ceramides of interest, also for the standard mixtures, concentrations for Ceramides are not provided in Assay result sheet but in custom format</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">empty or NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1xTotal Blank and 2x Matrix Blank </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only five samples per NIST material, no replicates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Blank and Matrix Blank, UHPSFC MS - Intra Assay QC Res</t>
   </si>
   <si>
     <t xml:space="preserve">ND or -</t>
@@ -227,78 +317,6 @@
   </si>
   <si>
     <t xml:space="preserve">Based on the limitations of using a QTOF-MS system compared to a QqQ-MS/MS system for quantitation, we decided to include two additional calibrator levels to build the calibration curves without modifying the SOP procedure for calibration lines (see the figure below). In particular, we observed limitations for integrating peak areas for Cerd18:1/16:0 and Cerd18:1/18:0 at STD5 and STD6. The two additional calibrator levels corresponded to 2-fold and 3-fold dilutions of STD3, which were included in the report for all ceramides (see the figure below). When chromatographic peak areas were under the limit of detection, we included ND. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">N/A or empty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calibration line samples, NIST samples and QC samples only reported with one replicate each</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N/A or ND or injection failed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Replaced injection failed with „N/A“</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please see „NOTES from Participants.docx“</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preferred</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Only final concentrations reported in custom format</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Only two Blank samples reported with one replicate, reversed calibration line data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N.D.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pooled QC, Total Blank and Matrix Blank, modified format, Result sheet is FIA-MRM - Intra Assay QC Res, Removed HQC2 and HLQC6 (outliers)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QC samples and NIST samples only reported with one replicate each, Total Blank and Matrix Blank, Renamed Sheet „LC-MRM - Intra Assay QC Res“</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Only raw areas reported, might be concentrations but that is not stated, Assay result sheet is empty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Report contains full lipid profile, not just Ceramides of interest, also for the standard mixtures, concentrations for Ceramides are not provided in Assay result sheet but in custom format</t>
-  </si>
-  <si>
-    <t xml:space="preserve">empty or 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Separate Matrix Blank and Total Blank, four replicates→ adapted result format, LC-MS &amp; TLS-LC-MS, removing replicate 3 from LC-MRM, seems to be consistently too low</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Blank and Matrix Blank, UHPSFC MS - Intra Assay QC Res</t>
   </si>
   <si>
     <t xml:space="preserve">Removed additional rows in blue</t>
@@ -318,7 +336,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -367,6 +385,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -438,7 +461,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -467,10 +490,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -479,7 +498,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -606,13 +633,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S58"/>
+  <dimension ref="A1:S60"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R40" activeCellId="0" sqref="R40"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I13" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R34" activeCellId="0" sqref="R34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="16.67"/>
@@ -694,40 +721,40 @@
         <v>21</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P2" s="4" t="s">
         <v>24</v>
@@ -747,43 +774,43 @@
         <v>20</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P3" s="4" t="s">
         <v>28</v>
@@ -801,43 +828,43 @@
         <v>20</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P4" s="4" t="s">
         <v>24</v>
@@ -858,43 +885,43 @@
         <v>20</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P5" s="4" t="s">
         <v>24</v>
@@ -912,43 +939,43 @@
         <v>20</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P6" s="4" t="s">
         <v>24</v>
@@ -968,43 +995,43 @@
         <v>20</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P7" s="4" t="s">
         <v>24</v>
@@ -1025,43 +1052,43 @@
         <v>20</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P8" s="4" t="s">
         <v>24</v>
@@ -1082,43 +1109,43 @@
         <v>20</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P9" s="4" t="n">
         <v>0</v>
@@ -1136,43 +1163,43 @@
         <v>20</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P10" s="4" t="s">
         <v>42</v>
@@ -1190,43 +1217,43 @@
         <v>20</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P11" s="4" t="s">
         <v>42</v>
@@ -1234,73 +1261,74 @@
       <c r="Q11" s="4"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
-        <v>16</v>
+      <c r="A12" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q12" s="0" t="s">
         <v>35</v>
       </c>
+      <c r="R12" s="4"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>22</v>
@@ -1315,22 +1343,22 @@
         <v>22</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P13" s="4" t="s">
         <v>24</v>
@@ -1338,189 +1366,191 @@
       <c r="Q13" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="R13" s="0" t="s">
-        <v>46</v>
-      </c>
+      <c r="R13" s="4"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
-        <v>47</v>
+      <c r="A14" s="2" t="n">
+        <v>19</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P14" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q14" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="Q14" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="R14" s="4"/>
+      <c r="R14" s="4" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>21</v>
+      <c r="C15" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="P15" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q15" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="R15" s="4"/>
+        <v>23</v>
+      </c>
+      <c r="P15" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="R15" s="4" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>21</v>
+      <c r="C16" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P16" s="4" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="Q16" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="R16" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>22</v>
@@ -1535,107 +1565,107 @@
         <v>22</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P17" s="4" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="Q17" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="R17" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>57</v>
+      </c>
+      <c r="S17" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P18" s="4" t="s">
         <v>42</v>
       </c>
       <c r="Q18" s="4" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="R18" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="S18" s="5" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>22</v>
@@ -1650,36 +1680,33 @@
         <v>22</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P19" s="4" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="Q19" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="R19" s="4" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>20</v>
@@ -1688,119 +1715,122 @@
         <v>21</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O20" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P20" s="4" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="Q20" s="4" t="s">
-        <v>35</v>
+        <v>62</v>
+      </c>
+      <c r="R20" s="4" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O21" s="4" t="s">
         <v>22</v>
       </c>
       <c r="P21" s="4" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="Q21" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="R21" s="4" t="s">
-        <v>61</v>
+        <v>35</v>
+      </c>
+      <c r="S21" s="0" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>22</v>
@@ -1815,184 +1845,181 @@
         <v>22</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O22" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P22" s="4" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="Q22" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="S22" s="0" t="s">
-        <v>62</v>
-      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="n">
-        <v>28</v>
+      <c r="A23" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O23" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P23" s="4" t="s">
         <v>24</v>
       </c>
       <c r="Q23" s="4" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O24" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="P24" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="P24" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="Q24" s="4" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="s">
-        <v>65</v>
+      <c r="A25" s="2" t="n">
+        <v>31</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O25" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P25" s="4" t="n">
         <v>0</v>
@@ -2003,66 +2030,69 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O26" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="P26" s="4" t="n">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="P26" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="Q26" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R26" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>22</v>
@@ -2071,57 +2101,52 @@
         <v>22</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N27" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O27" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P27" s="4" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="Q27" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="R27" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="S27" s="7" t="s">
-        <v>68</v>
-      </c>
+      <c r="R27" s="4"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>22</v>
@@ -2157,7 +2182,7 @@
         <v>22</v>
       </c>
       <c r="O28" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P28" s="4" t="s">
         <v>69</v>
@@ -2168,13 +2193,16 @@
       <c r="R28" s="4" t="s">
         <v>70</v>
       </c>
+      <c r="S28" s="0" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B29" s="0" t="s">
-        <v>20</v>
+      <c r="A29" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>73</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>21</v>
@@ -2218,139 +2246,134 @@
       <c r="P29" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Q29" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="R29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="0" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B30" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>21</v>
+      <c r="A30" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N30" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O30" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P30" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q30" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="R30" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="S30" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" s="8" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>23</v>
+      <c r="C31" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N31" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O31" s="4" t="s">
         <v>23</v>
       </c>
       <c r="P31" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="Q31" s="4"/>
       <c r="R31" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>21</v>
+      <c r="A32" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>22</v>
@@ -2365,181 +2388,185 @@
         <v>22</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N32" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O32" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P32" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q32" s="4"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N33" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O33" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P33" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="0" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J33" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K33" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L33" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M33" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N33" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="O33" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="P33" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q33" s="4"/>
+      <c r="Q33" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="R33" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>75</v>
+      <c r="A34" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>73</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N34" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O34" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P34" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q34" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="Q34" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="R34" s="4" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>21</v>
+      <c r="A35" s="7" t="n">
+        <v>13</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N35" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O35" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P35" s="4" t="s">
         <v>24</v>
@@ -2547,81 +2574,79 @@
       <c r="Q35" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="R35" s="0" t="s">
-        <v>83</v>
-      </c>
+      <c r="R35" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="S35" s="4"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="7" t="n">
+        <v>16</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L36" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M36" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N36" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O36" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="P36" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B36" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J36" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K36" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L36" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M36" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="N36" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="O36" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="P36" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q36" s="4" t="s">
+      <c r="Q36" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="R36" s="4" t="s">
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="7" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="8" t="n">
-        <v>13</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>75</v>
+      <c r="B37" s="8" t="s">
+        <v>73</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>23</v>
@@ -2636,19 +2661,19 @@
         <v>23</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N37" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O37" s="4" t="s">
         <v>23</v>
@@ -2656,212 +2681,244 @@
       <c r="P37" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Q37" s="4"/>
-      <c r="R37" s="4" t="s">
+      <c r="Q37" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="R37" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="S37" s="4"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>75</v>
+      <c r="B38" s="8" t="s">
+        <v>73</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N38" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O38" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P38" s="4" t="s">
         <v>24</v>
       </c>
       <c r="Q38" s="4"/>
       <c r="R38" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="10" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="10" t="n">
-        <v>20</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>75</v>
+      <c r="B39" s="8" t="s">
+        <v>73</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O39" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P39" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q39" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="R39" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="Q39" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="R39" s="4" t="s">
+      <c r="B40" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L40" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M40" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N40" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O40" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="P40" s="0" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="10" t="n">
-        <v>26</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
-      <c r="N40" s="4"/>
-      <c r="O40" s="4"/>
-      <c r="Q40" s="4"/>
-      <c r="R40" s="4"/>
+      <c r="Q40" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="R40" s="4" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L41" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M41" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N41" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O41" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="P41" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q41" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I41" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J41" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K41" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L41" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M41" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N41" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="O41" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="P41" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q41" s="4" t="s">
-        <v>35</v>
       </c>
       <c r="R41" s="4" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="10" t="n">
-        <v>33</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>75</v>
+      <c r="A42" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>73</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>22</v>
@@ -2870,201 +2927,316 @@
         <v>22</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N42" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O42" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P42" s="4" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="Q42" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="R42" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="S42" s="0" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="10" t="n">
-        <v>35</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>21</v>
+      <c r="R42" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="7" t="n">
+        <v>32</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M43" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N43" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O43" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P43" s="4" t="s">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="Q43" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="R43" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="S43" s="11" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="10" t="n">
+        <v>33</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K44" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L44" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M44" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N44" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O44" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="P44" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q44" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="R44" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="S44" s="0" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="10" t="n">
+        <v>35</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K45" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L45" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M45" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N45" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O45" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="P45" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q45" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="10" t="n">
         <v>37</v>
       </c>
-      <c r="B44" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I44" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J44" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K44" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L44" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M44" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N44" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="O44" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="P44" s="0" t="s">
+      <c r="B46" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J46" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K46" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L46" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M46" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N46" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O46" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="P46" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="Q44" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="S44" s="0" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="11"/>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="11"/>
+      <c r="Q46" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="S46" s="0" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="11"/>
+      <c r="A47" s="12"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="11"/>
+      <c r="A48" s="12"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="11"/>
+      <c r="A49" s="12"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="11"/>
+      <c r="A50" s="12"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="11"/>
+      <c r="A51" s="12"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="11"/>
+      <c r="A52" s="12"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="11"/>
+      <c r="A53" s="12"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="11"/>
+      <c r="A54" s="12"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="11"/>
+      <c r="A55" s="12"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="11"/>
+      <c r="A56" s="12"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="11"/>
+      <c r="A57" s="12"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="11"/>
+      <c r="A58" s="12"/>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="12"/>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="12"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:O44">
+  <conditionalFormatting sqref="C2:O46">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"Yes"</formula>
     </cfRule>
